--- a/data/trans_camb/Hacinamiento_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8081473406037499</v>
+        <v>-0.8105634006984972</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5062285839806625</v>
+        <v>-0.03044072808406599</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.141344470382853</v>
+        <v>-5.789303270446807</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6477603549373911</v>
+        <v>0.5158689045852243</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9102213613299708</v>
+        <v>0.5139358178636918</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.424913232105268</v>
+        <v>-1.986019969826006</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.437035349244376</v>
+        <v>1.184098187424785</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.072934478110882</v>
+        <v>1.791405868874779</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.052917872061006</v>
+        <v>-3.189950883289797</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.458765191110113</v>
+        <v>7.954016605759865</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.380893883844182</v>
+        <v>8.860131517140253</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.1362961742300586</v>
+        <v>0.02013734286200041</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.88505911764552</v>
+        <v>8.694681680012826</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.107739118895294</v>
+        <v>9.057646170182741</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.18814638782062</v>
+        <v>5.260286544267422</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.129575232425708</v>
+        <v>7.133675335306468</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.872803146826738</v>
+        <v>7.862541985845748</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.786578630852944</v>
+        <v>1.701064855680047</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2520947526306913</v>
+        <v>-0.2382066730951685</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.01405404947123317</v>
+        <v>-0.1083970313414513</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.9115918023975651</v>
+        <v>-0.9141597354256545</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.03375348803932633</v>
+        <v>-0.07540754167632774</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.06150625044812316</v>
+        <v>-0.09216135262822923</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5995651916969973</v>
+        <v>-0.5509136330948322</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2502184829967903</v>
+        <v>0.1968303397434522</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3364249433907263</v>
+        <v>0.3595581891283267</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6473261059381124</v>
+        <v>-0.6613497311621194</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.333059938147145</v>
+        <v>3.465784339479039</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.112061009553171</v>
+        <v>3.855886259326706</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2138742925434451</v>
+        <v>0.3261548274633438</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>6.803684636518531</v>
+        <v>5.743929519834868</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>6.527024457169347</v>
+        <v>5.850135433836374</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.271499371259129</v>
+        <v>3.91510101391503</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.049535973505459</v>
+        <v>3.210682884935029</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.389643808999514</v>
+        <v>3.669629366335081</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.8333578914331422</v>
+        <v>0.8082066214483877</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-1.36586588996106</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-3.781362016328126</v>
+        <v>-3.781362016328125</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.6489705199591176</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.637472605630155</v>
+        <v>-1.99834381802405</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.722641007628708</v>
+        <v>-1.844522949010576</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.817462945139418</v>
+        <v>-3.746764014507606</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.794702875039494</v>
+        <v>-5.835194794298494</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.477408984606961</v>
+        <v>-4.296784626690483</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-6.746379040142719</v>
+        <v>-6.650512117188024</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.777447709385484</v>
+        <v>-2.9131683112916</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.1535468965772</v>
+        <v>-2.224243999387517</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.341152409549097</v>
+        <v>-4.379848459422003</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.834712557957818</v>
+        <v>4.182178668375077</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.734081643337459</v>
+        <v>4.274947763883787</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.576798288895704</v>
+        <v>3.053987655081299</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3994164605046615</v>
+        <v>0.3520601121240453</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.902137696132198</v>
+        <v>1.472443951253747</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.4610056556129675</v>
+        <v>-0.7471990634370725</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.658648860518003</v>
+        <v>1.554359522062257</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.245335620953385</v>
+        <v>2.251628927050104</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0479136942175899</v>
+        <v>-0.02406397226069573</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.1692950686073312</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.4686887246314329</v>
+        <v>-0.4686887246314328</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.0946502089842723</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2432020401322688</v>
+        <v>-0.2871801863113548</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2503800200820304</v>
+        <v>-0.2659672536592107</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5484882488958461</v>
+        <v>-0.5413350136046104</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5843788895280347</v>
+        <v>-0.596802570376084</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4640669164945142</v>
+        <v>-0.4601644775336327</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6897994281402899</v>
+        <v>-0.7035643414903693</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3474491746870645</v>
+        <v>-0.3662479510568471</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.274085472554808</v>
+        <v>-0.2810268534592459</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.539346634677047</v>
+        <v>-0.555222887181309</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.187872445381245</v>
+        <v>1.008344484616467</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.164447816202488</v>
+        <v>1.036777105368731</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6601175068979087</v>
+        <v>0.7702756254002823</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.0812021545005185</v>
+        <v>0.06358501492801487</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3393319834174105</v>
+        <v>0.2559569912539648</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.03621249135286595</v>
+        <v>-0.1028387095873678</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2876775071504757</v>
+        <v>0.2722367268826571</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.385880387953754</v>
+        <v>0.3868446733783746</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.01043609911025114</v>
+        <v>-0.003180006885850194</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-2.525982279801541</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-1.997570244949536</v>
+        <v>-1.997570244949535</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-3.105363740849293</v>
@@ -1092,7 +1092,7 @@
         <v>-4.138081541818544</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-2.323296230540127</v>
+        <v>-2.323296230540128</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-8.379324949090918</v>
+        <v>-8.008386591461443</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.711361156216601</v>
+        <v>-9.86595196313089</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.075974351038503</v>
+        <v>-6.569346111296761</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.058693777758386</v>
+        <v>-6.191116491314186</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.990204183768412</v>
+        <v>-6.827653755826931</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-6.015449817534964</v>
+        <v>-5.532972300167556</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.792169593038595</v>
+        <v>-5.671816130394936</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.827518507498589</v>
+        <v>-6.79434416156676</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-4.984864807027126</v>
+        <v>-5.107890243056286</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.6116400979521226</v>
+        <v>-0.4367777836309685</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.257129793860296</v>
+        <v>-2.741830897749233</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.296184946244539</v>
+        <v>1.205205475418471</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9456278515269021</v>
+        <v>1.10654210179825</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.925254866572953</v>
+        <v>0.7372708279396832</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.694115457438106</v>
+        <v>1.667976246148675</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.5231342930562213</v>
+        <v>-0.5568630311315589</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-1.809580690219685</v>
+        <v>-1.787106193214539</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5232077403155574</v>
+        <v>0.3420178321321389</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.3737925946128413</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.2955986551258628</v>
+        <v>-0.2955986551258625</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.4356919556347753</v>
@@ -1197,7 +1197,7 @@
         <v>-0.5805853967490459</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.3259655108635002</v>
+        <v>-0.3259655108635003</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7924795060665472</v>
+        <v>-0.7773557326108778</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.9327306810073608</v>
+        <v>-0.9366421565575277</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7041469297486017</v>
+        <v>-0.6904235120810746</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6947776121254126</v>
+        <v>-0.6765135291176426</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6845378819039089</v>
+        <v>-0.7208638358627305</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6379629121320802</v>
+        <v>-0.63201183228189</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6578487314169402</v>
+        <v>-0.6493304507394294</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7756555879690202</v>
+        <v>-0.7709599252059594</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.566880793574663</v>
+        <v>-0.585010403219473</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.03389221965725452</v>
+        <v>-0.03674322463562234</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.3619597101632139</v>
+        <v>-0.4247543053536344</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2767491852152684</v>
+        <v>0.2740122058718893</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2071854198141229</v>
+        <v>0.2775908996449973</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.225187422185607</v>
+        <v>0.2033401767029086</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4065155806087519</v>
+        <v>0.4524893713028777</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.05668069180508191</v>
+        <v>-0.06733391011321685</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.3164320084123105</v>
+        <v>-0.2952831101987897</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1573459189124082</v>
+        <v>0.06329136207242481</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.9429801778438234</v>
+        <v>-1.118113533221215</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.940314913688668</v>
+        <v>1.794502064960197</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.759706792261949</v>
+        <v>-3.726521511819426</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.799168253675599</v>
+        <v>-2.943749833727707</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.497037920180355</v>
+        <v>-1.054349232482428</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.634702425501767</v>
+        <v>-4.722495174896769</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.134733095849398</v>
+        <v>-1.089123309371132</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.275194401957284</v>
+        <v>1.315413405528797</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.587054820182662</v>
+        <v>-3.608436881441536</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.538219761158343</v>
+        <v>4.619456625130049</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.170794237592485</v>
+        <v>8.889686892280181</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7668501308932913</v>
+        <v>0.838083450680791</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.440986179887828</v>
+        <v>2.228850203055808</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.462341467983881</v>
+        <v>4.636589054540769</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-0.3317158523981573</v>
+        <v>-0.2793095683242618</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.824803394241703</v>
+        <v>2.614845710479499</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.849332142993522</v>
+        <v>5.976423714612452</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.4535115119380618</v>
+        <v>-0.5968962920976092</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.492915392750556</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.6690300540451074</v>
+        <v>-0.6690300540451075</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2657221883552209</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.353630101773081</v>
+        <v>-0.3712594087040504</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3271419228290856</v>
+        <v>0.3111516985993117</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5681304183614927</v>
+        <v>-0.5984879916511688</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3258312260988742</v>
+        <v>-0.2444354008024947</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.9075235289537847</v>
+        <v>-0.9189360198165728</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3190630103779528</v>
+        <v>-0.2989721635574825</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2833209531761425</v>
+        <v>0.3009003745565867</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.8712360950240758</v>
+        <v>-0.8697234094159473</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4.80263433905181</v>
+        <v>3.773617361878764</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7.340236509128647</v>
+        <v>6.760409444635629</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.139808489855182</v>
+        <v>2.093147146525235</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.143262422448656</v>
+        <v>1.073007331605492</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.035371500008675</v>
+        <v>1.971268807628955</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.01189759703860294</v>
+        <v>0.122893766672833</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.31978026690873</v>
+        <v>1.307607185737617</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>3.017609234446426</v>
+        <v>2.897358691889506</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1127148197427967</v>
+        <v>-0.1289040002038506</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.326818958731098</v>
+        <v>-3.423616409970218</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.590374752284837</v>
+        <v>-4.669117825717796</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.388605768893694</v>
+        <v>-7.204920505723629</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.117120826420994</v>
+        <v>-3.695555254108412</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.009681177168364</v>
+        <v>-6.327222485237627</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-8.58576718476964</v>
+        <v>-8.871683956131031</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.663784625615516</v>
+        <v>-2.417705560032983</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.047039506202641</v>
+        <v>-4.082677700684942</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-6.705672229183642</v>
+        <v>-6.514348902528498</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.838531155746792</v>
+        <v>4.058003205781195</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.704554717985266</v>
+        <v>2.363239715469641</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.330418122069488</v>
+        <v>-1.259161216526741</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.811759755737393</v>
+        <v>5.383196060476504</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.56253532543712</v>
+        <v>1.799492471244254</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.823661936582389</v>
+        <v>-2.007333821402802</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.427281317384555</v>
+        <v>3.439030120143936</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.187028666317758</v>
+        <v>1.173819654095091</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-2.161712117708989</v>
+        <v>-2.218411941332507</v>
       </c>
     </row>
     <row r="31">
@@ -1636,29 +1636,29 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6361193263712986</v>
+        <v>-0.680465833426061</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8134472154983282</v>
+        <v>-0.8229752215638854</v>
       </c>
       <c r="E32" s="6" t="inlineStr"/>
       <c r="F32" s="6" t="n">
-        <v>-0.5368993628480911</v>
+        <v>-0.51831991971689</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.7824980954747759</v>
+        <v>-0.7769634204773682</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.9659884688671021</v>
+        <v>-0.9673126119539186</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.4469465910193888</v>
+        <v>-0.4233429336953966</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.6682312413535229</v>
+        <v>-0.6889063284931826</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.9785802782751639</v>
+        <v>-0.9786817050193565</v>
       </c>
     </row>
     <row r="33">
@@ -1669,29 +1669,29 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.599310284831101</v>
+        <v>3.159624503473714</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.897836173460425</v>
+        <v>1.650962838986759</v>
       </c>
       <c r="E33" s="6" t="inlineStr"/>
       <c r="F33" s="6" t="n">
-        <v>1.579909206637105</v>
+        <v>1.713635911368706</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6182320531412382</v>
+        <v>0.7635336871190324</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.5178601475998238</v>
+        <v>-0.5181327832968151</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.243715142255254</v>
+        <v>1.201884881125628</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5061697199343836</v>
+        <v>0.4644034741536981</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.7040496056331741</v>
+        <v>-0.7348826222436983</v>
       </c>
     </row>
     <row r="34">
@@ -1712,7 +1712,7 @@
         <v>-0.5953664600322628</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1.716468467989328</v>
+        <v>1.716468467989327</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>0.6333180289428197</v>
@@ -1721,7 +1721,7 @@
         <v>-2.543118747973315</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-0.4587210377476912</v>
+        <v>-0.4587210377476922</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.394241912498253</v>
@@ -1730,7 +1730,7 @@
         <v>-1.584492402389285</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.6215922217669555</v>
+        <v>0.6215922217669562</v>
       </c>
     </row>
     <row r="35">
@@ -1741,31 +1741,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.281848696548324</v>
+        <v>-2.485673703717076</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.112385628204898</v>
+        <v>-3.039428438978736</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.838576944922789</v>
+        <v>-1.105207114864428</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.535135981479542</v>
+        <v>-2.509428011797502</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.98573290706493</v>
+        <v>-5.055793507135435</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.060786728761393</v>
+        <v>-3.396798576807881</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.572053636408317</v>
+        <v>-1.542633479935843</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.312541164830117</v>
+        <v>-3.294601499062354</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.258114625545466</v>
+        <v>-1.504238351845971</v>
       </c>
     </row>
     <row r="36">
@@ -1776,31 +1776,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.539658698698045</v>
+        <v>2.48265059990941</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.239847298502789</v>
+        <v>1.147727925906358</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.297924567275905</v>
+        <v>4.255360671136336</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3.767381550294093</v>
+        <v>3.511299735278023</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-0.508040424843287</v>
+        <v>-0.522911009329449</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.226319069402491</v>
+        <v>2.003535764512228</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.370547115899631</v>
+        <v>2.335800033572021</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-0.1580392630787202</v>
+        <v>-0.07198481673940288</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.661867883009257</v>
+        <v>2.530987179677912</v>
       </c>
     </row>
     <row r="37">
@@ -1817,7 +1817,7 @@
         <v>-0.3478288189942202</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>1.002806238075946</v>
+        <v>1.002806238075945</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.1984862849483016</v>
@@ -1826,7 +1826,7 @@
         <v>-0.7970311429633624</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.1437663708423962</v>
+        <v>-0.1437663708423965</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1600998630487761</v>
@@ -1835,7 +1835,7 @@
         <v>-0.6434552202145043</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.2524257985317961</v>
+        <v>0.2524257985317964</v>
       </c>
     </row>
     <row r="38">
@@ -1846,29 +1846,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.8442192519559101</v>
-      </c>
-      <c r="D38" s="6" t="inlineStr"/>
+        <v>-0.8785650869834718</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5098467361700172</v>
+        <v>-0.5916657065271215</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.5609634714306354</v>
+        <v>-0.5468095199119246</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.6851926784677733</v>
+        <v>-0.6893057092690422</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.4886485098513147</v>
+        <v>-0.4775322649319657</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.8995348728160101</v>
+        <v>-0.9040104789609629</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3850529688578839</v>
+        <v>-0.4328679196292263</v>
       </c>
     </row>
     <row r="39">
@@ -1879,29 +1881,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3.942295351117807</v>
-      </c>
-      <c r="D39" s="6" t="inlineStr"/>
+        <v>5.008085453440501</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>2.549540672955494</v>
+      </c>
       <c r="E39" s="6" t="n">
-        <v>6.755395011333901</v>
+        <v>6.080688961347158</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2.218953999556698</v>
+        <v>1.976552292030785</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1555372410253492</v>
+        <v>-0.03941073284472446</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.49323741939786</v>
+        <v>1.15904004786174</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.492970886468711</v>
+        <v>1.548609388515552</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.04369207252265474</v>
+        <v>0.2306216414108805</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.987895016939456</v>
+        <v>1.662797109626592</v>
       </c>
     </row>
     <row r="40">
@@ -1922,7 +1926,7 @@
         <v>-1.977821629843361</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-0.9503151618520201</v>
+        <v>-0.9503151618520195</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0.6908543288779754</v>
@@ -1951,31 +1955,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.826747647074586</v>
+        <v>-2.956896898777317</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.407323684984054</v>
+        <v>-4.394411054087985</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-3.280462567526444</v>
+        <v>-3.372543233961417</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.75118164303129</v>
+        <v>-2.728728587438529</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-7.485480359600791</v>
+        <v>-7.374961822406501</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-6.459033861453103</v>
+        <v>-6.251426062011181</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.942435232143843</v>
+        <v>-1.983618927523231</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-5.1732521880475</v>
+        <v>-5.21772994919526</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-4.044747866872482</v>
+        <v>-4.410123466253426</v>
       </c>
     </row>
     <row r="42">
@@ -1986,31 +1990,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.255819725096679</v>
+        <v>2.265841009184087</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.1581852053005271</v>
+        <v>0.2498474001264619</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.250039288230425</v>
+        <v>1.537042434138752</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.016606382291156</v>
+        <v>4.391877829504656</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-1.958872930844243</v>
+        <v>-2.008355181682323</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-1.215922467841751</v>
+        <v>-0.7387149337868568</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.261577474812606</v>
+        <v>2.24021972686771</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-1.555261538473334</v>
+        <v>-1.582761593180645</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-0.4328038976903155</v>
+        <v>-0.4723162612495136</v>
       </c>
     </row>
     <row r="43">
@@ -2027,7 +2031,7 @@
         <v>-0.3872471967159604</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.1860667700620779</v>
+        <v>-0.1860667700620778</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.0811256402201086</v>
@@ -2056,31 +2060,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4618144866715766</v>
+        <v>-0.4755682191091851</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6717360086025002</v>
+        <v>-0.6885544898828316</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.5159739247511622</v>
+        <v>-0.5303694533882556</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2612809189139409</v>
+        <v>-0.2576817924644522</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.7349841990578564</v>
+        <v>-0.7201556332369016</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.6159530073341085</v>
+        <v>-0.6070099562945406</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2435274801468805</v>
+        <v>-0.2441662836802111</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.6478676557374519</v>
+        <v>-0.6567727300075731</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.4995228982940118</v>
+        <v>-0.5401739432032857</v>
       </c>
     </row>
     <row r="45">
@@ -2091,31 +2095,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.6262144785348372</v>
+        <v>0.5771616681608085</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.05963645066869828</v>
+        <v>0.1040764593931497</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3086306492837622</v>
+        <v>0.4134954147744507</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.594193472371462</v>
+        <v>0.6388216079117732</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.2702400991302649</v>
+        <v>-0.2738370275678692</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.1477726990993144</v>
+        <v>-0.1030357556953385</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3808646073536775</v>
+        <v>0.3956477537324531</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.2619848381433912</v>
+        <v>-0.2669492010166761</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.06899606131930947</v>
+        <v>-0.07758177541989249</v>
       </c>
     </row>
     <row r="46">
@@ -2165,31 +2169,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-3.643557447545277</v>
+        <v>-3.873736840315218</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-5.329656949439644</v>
+        <v>-5.40348142368371</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-6.847939177435962</v>
+        <v>-6.727683029500563</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.700500956220346</v>
+        <v>-1.522298052983122</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-4.131191090839267</v>
+        <v>-3.913911327640465</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-5.584148019534553</v>
+        <v>-5.669602618003007</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.845434447167076</v>
+        <v>-1.918262102468432</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-3.865416584613161</v>
+        <v>-3.793735767595083</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-5.596937456680427</v>
+        <v>-5.551933580659059</v>
       </c>
     </row>
     <row r="48">
@@ -2200,31 +2204,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.831950333028765</v>
+        <v>0.6701727880612872</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.9933730471608155</v>
+        <v>-1.11544585329916</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-2.936973626368634</v>
+        <v>-2.987024115973657</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.290384055830481</v>
+        <v>3.365940448785222</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.5200672421265605</v>
+        <v>0.4457401204897074</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-1.730136221462052</v>
+        <v>-1.881335961415864</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.45841783497597</v>
+        <v>1.447837605104248</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.7832873700285894</v>
+        <v>-0.894033964077642</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-2.836268728047945</v>
+        <v>-3.006342935823256</v>
       </c>
     </row>
     <row r="49">
@@ -2270,31 +2274,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.5084528689591752</v>
+        <v>-0.5433186221085751</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.7441243452835614</v>
+        <v>-0.7309046410822764</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.9340702362748725</v>
+        <v>-0.9344069340841491</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.2435730982105508</v>
+        <v>-0.2204842754982378</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.5667565252291167</v>
+        <v>-0.5575085859425725</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.8041187705255838</v>
+        <v>-0.8027972277370428</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.2865720680937876</v>
+        <v>-0.28769854041786</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.5836735529959494</v>
+        <v>-0.5798781164257455</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.8333975883591748</v>
+        <v>-0.8374123289970439</v>
       </c>
     </row>
     <row r="51">
@@ -2305,31 +2309,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.209233281886563</v>
+        <v>0.1561620773348709</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.1754383468978811</v>
+        <v>-0.2156452103396231</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.5641693843718156</v>
+        <v>-0.5813809220364329</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.7614333301256404</v>
+        <v>0.7860910338832966</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1458353606662091</v>
+        <v>0.1183593943130767</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.3832149690442567</v>
+        <v>-0.406176393269753</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.3125097671467103</v>
+        <v>0.3064797021794617</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.154577603674088</v>
+        <v>-0.1688968192284129</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.5855303556935127</v>
+        <v>-0.5898954499144352</v>
       </c>
     </row>
     <row r="52">
@@ -2368,7 +2372,7 @@
         <v>-0.974147961122064</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>-2.387847548477026</v>
+        <v>-2.387847548477025</v>
       </c>
     </row>
     <row r="53">
@@ -2379,31 +2383,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.152086544948398</v>
+        <v>-1.174134047219034</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-1.599877398886741</v>
+        <v>-1.62772802978455</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-3.136190778461394</v>
+        <v>-3.111829336458349</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.8649168910686577</v>
+        <v>-0.8940355971363969</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-2.553382748435998</v>
+        <v>-2.464714177424412</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-3.733198063722301</v>
+        <v>-3.785813164797935</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-0.6354106901543876</v>
+        <v>-0.7455479748931201</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-1.758088871882184</v>
+        <v>-1.785545923209208</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-3.130104086760466</v>
+        <v>-3.150064793198142</v>
       </c>
     </row>
     <row r="54">
@@ -2414,31 +2418,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.9991512091954539</v>
+        <v>0.9531750767587033</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.579300996862592</v>
+        <v>0.4711147578279776</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-1.084755065515171</v>
+        <v>-1.08190573163197</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1.445451446554136</v>
+        <v>1.456265587856522</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-0.3549384211915388</v>
+        <v>-0.2850980770329117</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-1.70732448869184</v>
+        <v>-1.696981927787745</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>0.9308869945890278</v>
+        <v>0.7986973465195368</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-0.2194196219123327</v>
+        <v>-0.2142728501431424</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-1.721146319220576</v>
+        <v>-1.6558936151274</v>
       </c>
     </row>
     <row r="55">
@@ -2455,7 +2459,7 @@
         <v>-0.1072116919751956</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.428926675449538</v>
+        <v>-0.4289266754495381</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.03923626649269896</v>
@@ -2473,7 +2477,7 @@
         <v>-0.1803975213432702</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>-0.442193379530036</v>
+        <v>-0.4421933795300358</v>
       </c>
     </row>
     <row r="56">
@@ -2484,31 +2488,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.2141799541780419</v>
+        <v>-0.2213651871140735</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.2953380337595596</v>
+        <v>-0.2977351770551427</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.57686712019974</v>
+        <v>-0.5642775901144955</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.1356557776157878</v>
+        <v>-0.1346877193731174</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.3885353551475533</v>
+        <v>-0.3701823395598004</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.5635276202284777</v>
+        <v>-0.5663622294607144</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.1126916225661679</v>
+        <v>-0.1263975971424858</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.2984198024764916</v>
+        <v>-0.308801790032928</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.532062565167061</v>
+        <v>-0.5376297423999018</v>
       </c>
     </row>
     <row r="57">
@@ -2519,31 +2523,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.2439287708677231</v>
+        <v>0.2301029125770239</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.1363233879599607</v>
+        <v>0.1159218328313917</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.2490087668467935</v>
+        <v>-0.2395874668237106</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.2761736783833171</v>
+        <v>0.273244182702031</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.06429583117660995</v>
+        <v>-0.054478932931148</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.3159674658069695</v>
+        <v>-0.3111092365185829</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1871365347924898</v>
+        <v>0.1594462426476228</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.04001067721239843</v>
+        <v>-0.04174789063850145</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.3374900145231505</v>
+        <v>-0.3346990041597539</v>
       </c>
     </row>
     <row r="58">
